--- a/AnalisiRequisiti/Documentazione/TRACCIABILITà.xlsx
+++ b/AnalisiRequisiti/Documentazione/TRACCIABILITà.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Funzionalità</t>
   </si>
@@ -31,7 +31,37 @@
     <t>Accesso al sistema</t>
   </si>
   <si>
-    <t>it.unisa.diem.ingsoft.biblioteca_universitaria_10.userinterface</t>
+    <t xml:space="preserve">it.unisa.diem.ingsoft.biblioteca_universitaria_10.userinterface
+it.unisa.diem.ingsoft.biblioteca_universitaria_10.biblioteca
+it.unisa.diem.ingsoft.biblioteca_universitaria_10.utenti
+it.unisa.diem.ingsoft.biblioteca_universitaria_10.prestiti 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autore; Libro; Lista_Libri;Utente; Lista_Utenti;
+Prestito; Lista_Prestio
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>letturaUtenti(String nomefile)
+letturaPrestiti(String nomefile)
+letturaLibri(String nomefile)</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>---</t>
@@ -55,6 +85,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">TestCostruttoreEGetters()
+TestCostruttoreEGetters()
+TestAggiungiLibroNuovoLibro()
+TestAggiungiLibroStessoISBN()
+</t>
+  </si>
+  <si>
     <t>Modifica dei dati di un libro</t>
   </si>
   <si>
@@ -64,7 +101,15 @@
   </si>
   <si>
     <t xml:space="preserve">modificaLibro(Libro libro);
-ricercaLibro();
+cercaPerTitolo(String str);
+cercaPerISBN(String str);
+cercaPerAutore(String str);
+getTitolo(String titolo);
+getISBN(String ISBN);
+getCopie(int copie)
+getAnno(int anno);
+getCognome(String cognome);
+getNome(String nome);
 setTitolo(String titolo);
 modificaAutore(Autore autore);
 setISBN(String ISBN);
@@ -76,14 +121,46 @@
 </t>
   </si>
   <si>
+    <t>TestCercaPerTitoloCaseInsensitive()
+TestCercaPerISBN()
+TestCercaPerAutoreMatchSuNomeOCognomeCaseInsensitive()
+TestSetTitolo()
+TestSetAutori()
+TestSetCopie()
+TestCostruttoreEGetters()
+TestCostruttoreEGetters()
+TestModificaAutore()
+TestModificaLibro()</t>
+  </si>
+  <si>
     <t>Modifica numero di copie di un libro</t>
   </si>
   <si>
     <t xml:space="preserve">modificaLibro(Libro libro);
-ricercaLibro();
-setCopie(int copie);
+cercaPerTitolo(String str);
+cercaPerISBN(String str);
+cercaPerAutore(String str);
+getTitolo(String titolo);
+getISBN(String ISBN);
+getCopie(int copie)
+getAnno(int anno);
+getCognome(String cognome);
+getNome(String nome);
+setCopie(int Copie);
 salvataggioLibri(String nomefile);
 </t>
+  </si>
+  <si>
+    <t>TestCercaPerTitoloCaseInsensitive()
+TestCercaPerISBN()
+TestCercaPerAutoreMatchSuNomeOCognomeCaseInsensitive()
+TestSetTitolo()
+TestSetAutori()
+TestSetCopie()
+TestCostruttoreEGetters()
+TestCostruttoreEGetters()
+TestModificaAutore()
+TestModificaCopieConfrontoStringheConUgualeUguale()</t>
   </si>
   <si>
     <t>Cancellazione di un libro</t>
@@ -94,6 +171,11 @@
   <si>
     <t>rimuoviLibro(Libro libro);
 salvataggioLibri(String nomefile);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestRimuoviLibroNonPresente()
+TestRimuoviLibroPresente()
+</t>
   </si>
   <si>
     <t>Ricerca di un libro in deposito</t>
@@ -109,6 +191,14 @@
 getAnno(int anno);
 getCognome(String cognome);
 getNome(String nome);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCercaPerTitoloCaseInsensitive()
+TestCercaPerISBN()
+TestCercaPerAutoreMatchSuNomeOCognomeCaseInsensitive()
+TestCostruttoreEGetters()
+TestCostruttoreEGetters()
+</t>
   </si>
   <si>
     <t>Visualizzazione della lista dei libri</t>
@@ -152,6 +242,9 @@
 </t>
   </si>
   <si>
+    <t>testAggiungiUtente()</t>
+  </si>
+  <si>
     <t>Modifica utente</t>
   </si>
   <si>
@@ -166,6 +259,16 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">testModificaUtente()
+testCercaPerMatricola()
+testCercaPerNomeCognome()
+testGetNome()
+testGetCognome()
+testGetMatricola()
+testGetMail()
+</t>
+  </si>
+  <si>
     <t>Cancellazione utente</t>
   </si>
   <si>
@@ -178,6 +281,15 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">testCercaPerMatricola()
+testCercaPerNomeCognome()
+testGetNome()
+testGetCognome()
+testGetMatricola()
+testGetMail()
+</t>
+  </si>
+  <si>
     <t>Ricerca utente</t>
   </si>
   <si>
@@ -186,16 +298,10 @@
 </t>
   </si>
   <si>
+    <t>testRimuoviUtente()</t>
+  </si>
+  <si>
     <t>Visualizzazione della lista degli utenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cercaPerMatricola(String str);
-cercaPerNomeCognome(String str);
-getNome();
-getCognome();
-getMatricola();
-getMail();
-</t>
   </si>
   <si>
     <t>Utente non presente</t>
@@ -221,38 +327,38 @@
 it.unisa.diem.ingsoft.biblioteca_universitaria_10.utenti</t>
   </si>
   <si>
-    <t xml:space="preserve">Prestito; Lista_Prestio; Lista_Libri; 
-Lista_Utenti
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestito(String ISBN,Utente utente, LacalDate dataScadenza);
-Utente(String nome, String cognome, int matricola, String mail)
-aggiungiPrestito(Prestito p)
-setCopie(int copie)
+    <t xml:space="preserve">Prestito; Lista_Prestito; Lista_Libri; 
+</t>
+  </si>
+  <si>
+    <t>Prestito(String ISBN,Utente utente, LacalDate dataScadenza);
+getMatricola()
+modificaCopie(String ISBN,-1)
 salvataggioPrestiti(String nomefile)
+aggiungiPrestito(Prestito p)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testAggiongiPrestito()
+testAggiongiPrestitoLimite()
+testGetMatricola()
 </t>
   </si>
   <si>
     <t>Registrazione di una restituzione</t>
   </si>
   <si>
-    <t xml:space="preserve">Prestito; Lista_Prestio; 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">rimuoviPrestito(Prestito p)
-setCopie(int copie)
+modificaCopie(String ISBN,+1)
 salvataggioPrestiti(String nomefile)
 </t>
   </si>
   <si>
+    <t xml:space="preserve">testRimuoviPrestito()
+testSetCopie()
+</t>
+  </si>
+  <si>
     <t>Visualizzazione elenco prestiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestito; Lista_Prestio; Lista_Libri; 
-Lista_Utenti
-</t>
   </si>
   <si>
     <t xml:space="preserve">OrdinaLibriPerScadenza(Comparator&lt;Prestito&gt; cmp)
@@ -263,13 +369,20 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">testGetISBN()
+testGetUtente()
+testGetID()
+testGetScadenza()
+</t>
+  </si>
+  <si>
     <t>Prestito non presente</t>
   </si>
   <si>
     <t xml:space="preserve">cercaPerISBN(String str)
-cercaPerID(String str)
-cercaPerUtente(String str)
-cercaPerData(String str)
+cercaPerID(int ID)
+cercaPrestitoPerMatricola(String Matricola)
+cercaPerData(LocalDate dataScadenza)
 getISBN()
 getUtente()
 getID()
@@ -277,28 +390,89 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">testCercaPerMatricola() 
+testCercaPerISBN()
+testGetISBN()
+testGetUtente()
+testGetID()
+testGetScadenza()
+</t>
+  </si>
+  <si>
     <t>Ricerca Prestito</t>
   </si>
   <si>
+    <t xml:space="preserve">cercaPerISBN(String str)
+cercaPerID(int ID)
+cercaPrestitoPerMatricola(String Matricola)
+cercaPerData(LocalDate dataScadenza)
+getISBN()
+getUtente()
+getID()
+getDataScadenza()
+</t>
+  </si>
+  <si>
     <t>Visualizzazione area ritardi</t>
   </si>
   <si>
     <t xml:space="preserve">aggiornaRitardi()
-cercaPerData(String str)
+cercaPerData(LocalDate dataScadenza)
 getDataScadenza()
 </t>
   </si>
   <si>
+    <t>TestAggiornaRitardi()</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ricerca Ritardo        </t>
   </si>
   <si>
     <t>Rimozione Ritardo</t>
   </si>
   <si>
+    <t xml:space="preserve">cercaPerISBN(String str)
+cercaPerID(int ID)
+cercaPrestitoPerMatricola(String Matricola)
+cercaPerData(LocalDate dataScadenza)
+getISBN()
+getUtente()
+getID()
+getDataScadenza()
+rimuoviPrestito(Prestito p)
+salvataggioPrestiti(String nomefile)
+</t>
+  </si>
+  <si>
+    <t>testCercaPerMatricola() 
+testCercaPerISBN()
+testGetISBN()
+testGetUtente()
+testGetID()
+testGetScadenza()
+testRimuoviPrestito()</t>
+  </si>
+  <si>
     <t>Ritardo non trovato</t>
   </si>
   <si>
+    <t>cercaPerISBN(String str)
+cercaPerID(int ID)
+cercaPrestitoPerMatricola(String Matricola)
+cercaPerData(LocalDate dataScadenza)
+getISBN()
+getUtente()
+getID()
+getDataScadenza()</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salvataggio delle informazioni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">salvataggioPrestiti(String nomefile)
+salvataggioLibri(String nomefile)
+salvataggioUtenti(String nomefile)
+</t>
   </si>
 </sst>
 </file>
@@ -636,9 +810,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="31.25"/>
     <col customWidth="1" min="2" max="2" width="55.88"/>
-    <col customWidth="1" min="3" max="3" width="28.0"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
     <col customWidth="1" min="4" max="4" width="57.13"/>
-    <col customWidth="1" min="5" max="5" width="19.38"/>
+    <col customWidth="1" min="5" max="5" width="51.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -658,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1">
+    <row r="2" ht="59.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -669,401 +843,401 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="52.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="124.5" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="223.5" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="53.25" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="152.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="125.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="141.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="139.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/AnalisiRequisiti/Documentazione/TRACCIABILITà.xlsx
+++ b/AnalisiRequisiti/Documentazione/TRACCIABILITà.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Funzionalità</t>
   </si>
@@ -327,7 +327,7 @@
 it.unisa.diem.ingsoft.biblioteca_universitaria_10.utenti</t>
   </si>
   <si>
-    <t xml:space="preserve">Prestito; Lista_Prestito; Lista_Libri; 
+    <t xml:space="preserve">Prestito; Lista_Prestito; Lista_Libri; Lista_Utenti;
 </t>
   </si>
   <si>
@@ -347,6 +347,10 @@
     <t>Registrazione di una restituzione</t>
   </si>
   <si>
+    <t xml:space="preserve">Prestito; Lista_Prestito; Lista_Libri; 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">rimuoviPrestito(Prestito p)
 modificaCopie(String ISBN,+1)
 salvataggioPrestiti(String nomefile)
@@ -361,18 +365,16 @@
     <t>Visualizzazione elenco prestiti</t>
   </si>
   <si>
-    <t xml:space="preserve">OrdinaLibriPerScadenza(Comparator&lt;Prestito&gt; cmp)
-getISBN()
-getUtente()
-getID()
-getDataScadenza()
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testGetISBN()
-testGetUtente()
-testGetID()
-testGetScadenza()
+    <t xml:space="preserve">Prestito; Lista_Prestito; 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+getPrestiti()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testGetPrestiti()
 </t>
   </si>
   <si>
@@ -384,7 +386,7 @@
 cercaPrestitoPerMatricola(String Matricola)
 cercaPerData(LocalDate dataScadenza)
 getISBN()
-getUtente()
+getMatricola()
 getID()
 getDataScadenza()
 </t>
@@ -402,46 +404,45 @@
     <t>Ricerca Prestito</t>
   </si>
   <si>
-    <t xml:space="preserve">cercaPerISBN(String str)
+    <t>Visualizzazione area ritardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it.unisa.diem.ingsoft.biblioteca_universitaria_10.userinterface 
+it.unisa.diem.ingsoft.biblioteca_universitaria_10.prestiti 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggiornaRitardi()
+getDataScadenza()
+</t>
+  </si>
+  <si>
+    <t>TestAggiornaRitardi()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricerca Ritardo        </t>
+  </si>
+  <si>
+    <t>Rimozione Ritardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it.unisa.diem.ingsoft.biblioteca_universitaria_10.userinterface 
+it.unisa.diem.ingsoft.biblioteca_universitaria_10.prestiti 
+it.unisa.diem.ingsoft.biblioteca_universitaria_10.biblioteca
+</t>
+  </si>
+  <si>
+    <t>cercaPerISBN(String str)
 cercaPerID(int ID)
 cercaPrestitoPerMatricola(String Matricola)
 cercaPerData(LocalDate dataScadenza)
 getISBN()
-getUtente()
-getID()
-getDataScadenza()
-</t>
-  </si>
-  <si>
-    <t>Visualizzazione area ritardi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggiornaRitardi()
-cercaPerData(LocalDate dataScadenza)
-getDataScadenza()
-</t>
-  </si>
-  <si>
-    <t>TestAggiornaRitardi()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricerca Ritardo        </t>
-  </si>
-  <si>
-    <t>Rimozione Ritardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cercaPerISBN(String str)
-cercaPerID(int ID)
-cercaPrestitoPerMatricola(String Matricola)
-cercaPerData(LocalDate dataScadenza)
-getISBN()
-getUtente()
+getMatricola()
 getID()
 getDataScadenza()
 rimuoviPrestito(Prestito p)
 salvataggioPrestiti(String nomefile)
-</t>
+modificaCopie(String ISBN,+1)</t>
   </si>
   <si>
     <t>testCercaPerMatricola() 
@@ -456,17 +457,57 @@
     <t>Ritardo non trovato</t>
   </si>
   <si>
+    <t xml:space="preserve">Prestito; Lista_Prestito; Lista_Libri,Lista_Utenti; 
+</t>
+  </si>
+  <si>
     <t>cercaPerISBN(String str)
 cercaPerID(int ID)
 cercaPrestitoPerMatricola(String Matricola)
 cercaPerData(LocalDate dataScadenza)
 getISBN()
-getUtente()
+getMatricola()
 getID()
 getDataScadenza()</t>
   </si>
   <si>
+    <t>Modifica prestito</t>
+  </si>
+  <si>
+    <t>Prestito;Lista_Prestiti; Lista_Libri;Lista_Utenti;</t>
+  </si>
+  <si>
+    <t>cercaPerISBN(String str)
+cercaPerID(int ID)
+cercaPrestitoPerMatricola(String Matricola)
+cercaPerData(LocalDate dataScadenza)
+getISBN()
+getMatricola()
+getDataScadenza()
+setISBN()
+setMatricola()
+setDataScadenza()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testCercaPerMatricola() 
+testCercaPerISBN()
+testGetISBN()
+testGetUtente()
+testGetScadenza()
+</t>
+  </si>
+  <si>
+    <t>Modifica ritardo</t>
+  </si>
+  <si>
+    <t>Prestito;Lista_Prestiti;Lista_Libri;Lista_Utenti;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salvataggio delle informazioni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista_Utenti; Lista_Prestito; Lista_Libri; 
+</t>
   </si>
   <si>
     <t xml:space="preserve">salvataggioPrestiti(String nomefile)
@@ -479,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -503,8 +544,22 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +576,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EDF7"/>
+        <bgColor rgb="FFE8EDF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -569,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -590,6 +651,15 @@
     </xf>
     <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,35 +1165,35 @@
         <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>53</v>
@@ -1132,15 +1202,15 @@
         <v>54</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>53</v>
@@ -1149,32 +1219,32 @@
         <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>53</v>
@@ -1183,60 +1253,94 @@
         <v>54</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>77</v>
+      <c r="A25" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>9</v>
       </c>
     </row>
